--- a/MSU.xlsx
+++ b/MSU.xlsx
@@ -7311,7 +7311,7 @@
       <c r="F194" s="3" t="n">
         <v>43417</v>
       </c>
-      <c r="G194" s="19" t="n">
+      <c r="G194" s="17" t="n">
         <v>-850.66</v>
       </c>
       <c r="H194" s="5" t="n">
@@ -7520,7 +7520,7 @@
       <c r="F200" s="3" t="n">
         <v>43434</v>
       </c>
-      <c r="G200" s="19" t="n">
+      <c r="G200" s="17" t="n">
         <v>-38247.77</v>
       </c>
       <c r="H200" s="4" t="n">
@@ -7555,7 +7555,7 @@
       <c r="F201" s="3" t="n">
         <v>43454</v>
       </c>
-      <c r="G201" s="18" t="n">
+      <c r="G201" s="17" t="n">
         <v>-17424.37</v>
       </c>
       <c r="H201" s="4" t="n">
@@ -7590,7 +7590,7 @@
       <c r="F202" s="3" t="n">
         <v>43454</v>
       </c>
-      <c r="G202" s="18" t="n">
+      <c r="G202" s="17" t="n">
         <v>-17424.37</v>
       </c>
       <c r="H202" s="4" t="n">
@@ -7625,7 +7625,7 @@
       <c r="F203" s="3" t="n">
         <v>43454</v>
       </c>
-      <c r="G203" s="18" t="n">
+      <c r="G203" s="17" t="n">
         <v>-272645.25</v>
       </c>
       <c r="H203" s="4" t="n">
@@ -7660,7 +7660,7 @@
       <c r="F204" s="3" t="n">
         <v>43454</v>
       </c>
-      <c r="G204" s="18" t="n">
+      <c r="G204" s="17" t="n">
         <v>-78898.09</v>
       </c>
       <c r="H204" s="4" t="n">
@@ -7694,7 +7694,7 @@
       <c r="F205" s="3" t="n">
         <v>43454</v>
       </c>
-      <c r="G205" s="19" t="n">
+      <c r="G205" s="17" t="n">
         <v>-36882.08</v>
       </c>
       <c r="H205" s="4" t="n">
@@ -7729,7 +7729,7 @@
       <c r="F206" s="3" t="n">
         <v>43454</v>
       </c>
-      <c r="G206" s="18" t="n">
+      <c r="G206" s="17" t="n">
         <v>-272645.25</v>
       </c>
       <c r="H206" s="5" t="n">
@@ -7764,7 +7764,7 @@
       <c r="F207" s="3" t="n">
         <v>43454</v>
       </c>
-      <c r="G207" s="18" t="n">
+      <c r="G207" s="17" t="n">
         <v>-272645.25</v>
       </c>
       <c r="H207" s="4" t="n">
@@ -7799,7 +7799,7 @@
       <c r="F208" s="3" t="n">
         <v>43454</v>
       </c>
-      <c r="G208" s="18" t="n">
+      <c r="G208" s="17" t="n">
         <v>-78898.09</v>
       </c>
       <c r="H208" s="4" t="n">
@@ -7834,7 +7834,7 @@
       <c r="F209" s="3" t="n">
         <v>43454</v>
       </c>
-      <c r="G209" s="18" t="n">
+      <c r="G209" s="17" t="n">
         <v>-272645.25</v>
       </c>
       <c r="H209" s="4" t="n">
@@ -7869,7 +7869,7 @@
       <c r="F210" s="3" t="n">
         <v>43454</v>
       </c>
-      <c r="G210" s="18" t="n">
+      <c r="G210" s="17" t="n">
         <v>-78898.09</v>
       </c>
       <c r="H210" s="4" t="n">
@@ -7903,7 +7903,7 @@
       <c r="F211" s="3" t="n">
         <v>43474</v>
       </c>
-      <c r="G211" s="19" t="n">
+      <c r="G211" s="17" t="n">
         <v>-14024.1</v>
       </c>
       <c r="H211" s="4" t="n">
@@ -7937,7 +7937,7 @@
       <c r="F212" s="3" t="n">
         <v>43480</v>
       </c>
-      <c r="G212" s="19" t="n">
+      <c r="G212" s="17" t="n">
         <v>-20523.08</v>
       </c>
       <c r="H212" s="4" t="n">
@@ -8181,7 +8181,7 @@
       <c r="F219" s="3" t="n">
         <v>43528</v>
       </c>
-      <c r="G219" s="19" t="n">
+      <c r="G219" s="18" t="n">
         <v>-240845.22</v>
       </c>
       <c r="H219" s="4" t="n">
@@ -8216,7 +8216,7 @@
       <c r="F220" s="3" t="n">
         <v>43528</v>
       </c>
-      <c r="G220" s="19" t="n">
+      <c r="G220" s="18" t="n">
         <v>-240845.22</v>
       </c>
       <c r="H220" s="4" t="n">
@@ -8251,7 +8251,7 @@
       <c r="F221" s="3" t="n">
         <v>43544</v>
       </c>
-      <c r="G221" s="19" t="n">
+      <c r="G221" s="18" t="n">
         <v>-295298.57</v>
       </c>
       <c r="H221" s="4" t="n">
@@ -8286,7 +8286,7 @@
       <c r="F222" s="3" t="n">
         <v>43544</v>
       </c>
-      <c r="G222" s="19" t="n">
+      <c r="G222" s="18" t="n">
         <v>-295298.57</v>
       </c>
       <c r="H222" s="5" t="n">
@@ -8321,7 +8321,7 @@
       <c r="F223" s="3" t="n">
         <v>43544</v>
       </c>
-      <c r="G223" s="19" t="n">
+      <c r="G223" s="18" t="n">
         <v>-295298.57</v>
       </c>
       <c r="H223" s="4" t="n">
@@ -8356,7 +8356,7 @@
       <c r="F224" s="3" t="n">
         <v>43544</v>
       </c>
-      <c r="G224" s="19" t="n">
+      <c r="G224" s="18" t="n">
         <v>-295298.57</v>
       </c>
       <c r="H224" s="4" t="n">
@@ -8390,7 +8390,7 @@
       <c r="F225" s="3" t="n">
         <v>43544</v>
       </c>
-      <c r="G225" s="19" t="n">
+      <c r="G225" s="18" t="n">
         <v>-322340.9</v>
       </c>
       <c r="H225" s="4" t="n">
@@ -8425,7 +8425,7 @@
       <c r="F226" s="3" t="n">
         <v>43544</v>
       </c>
-      <c r="G226" s="19" t="n">
+      <c r="G226" s="18" t="n">
         <v>-295298.57</v>
       </c>
       <c r="H226" s="4" t="n">
@@ -8459,7 +8459,7 @@
       <c r="F227" s="3" t="n">
         <v>43544</v>
       </c>
-      <c r="G227" s="19" t="n">
+      <c r="G227" s="18" t="n">
         <v>-322340.9</v>
       </c>
       <c r="H227" s="4" t="n">
@@ -8494,7 +8494,7 @@
       <c r="F228" s="3" t="n">
         <v>43613</v>
       </c>
-      <c r="G228" s="18" t="n">
+      <c r="G228" s="17" t="n">
         <v>-161361.9</v>
       </c>
       <c r="H228" s="4" t="n">
@@ -8529,7 +8529,7 @@
       <c r="F229" s="3" t="n">
         <v>43613</v>
       </c>
-      <c r="G229" s="18" t="n">
+      <c r="G229" s="17" t="n">
         <v>-161361.9</v>
       </c>
       <c r="H229" s="4" t="n">
@@ -8564,7 +8564,7 @@
       <c r="F230" s="3" t="n">
         <v>43613</v>
       </c>
-      <c r="G230" s="19" t="n">
+      <c r="G230" s="18" t="n">
         <v>-559151.13</v>
       </c>
       <c r="H230" s="4" t="n">
@@ -8599,7 +8599,7 @@
       <c r="F231" s="3" t="n">
         <v>43613</v>
       </c>
-      <c r="G231" s="19" t="n">
+      <c r="G231" s="18" t="n">
         <v>-559151.13</v>
       </c>
       <c r="H231" s="4" t="n">
@@ -8634,7 +8634,7 @@
       <c r="F232" s="3" t="n">
         <v>43613</v>
       </c>
-      <c r="G232" s="19" t="n">
+      <c r="G232" s="18" t="n">
         <v>-559151.13</v>
       </c>
       <c r="H232" s="4" t="n">
@@ -8669,7 +8669,7 @@
       <c r="F233" s="3" t="n">
         <v>43613</v>
       </c>
-      <c r="G233" s="19" t="n">
+      <c r="G233" s="18" t="n">
         <v>-559151.13</v>
       </c>
       <c r="H233" s="4" t="n">
@@ -8704,7 +8704,7 @@
       <c r="F234" s="3" t="n">
         <v>43613</v>
       </c>
-      <c r="G234" s="18" t="n">
+      <c r="G234" s="17" t="n">
         <v>-161361.9</v>
       </c>
       <c r="H234" s="4" t="n">
@@ -8739,7 +8739,7 @@
       <c r="F235" s="3" t="n">
         <v>43613</v>
       </c>
-      <c r="G235" s="18" t="n">
+      <c r="G235" s="17" t="n">
         <v>-161361.9</v>
       </c>
       <c r="H235" s="4" t="n">
@@ -8774,7 +8774,7 @@
       <c r="F236" s="3" t="n">
         <v>43641</v>
       </c>
-      <c r="G236" s="19" t="n">
+      <c r="G236" s="18" t="n">
         <v>-286872.99</v>
       </c>
       <c r="H236" s="4" t="n">
@@ -8844,7 +8844,7 @@
       <c r="F238" s="3" t="n">
         <v>43641</v>
       </c>
-      <c r="G238" s="19" t="n">
+      <c r="G238" s="18" t="n">
         <v>-286872.99</v>
       </c>
       <c r="H238" s="4" t="n">
@@ -8879,7 +8879,7 @@
       <c r="F239" s="3" t="n">
         <v>43641</v>
       </c>
-      <c r="G239" s="18" t="n">
+      <c r="G239" s="17" t="n">
         <v>-359693.53</v>
       </c>
       <c r="H239" s="5" t="n">
@@ -8914,7 +8914,7 @@
       <c r="F240" s="3" t="n">
         <v>43641</v>
       </c>
-      <c r="G240" s="18" t="n">
+      <c r="G240" s="17" t="n">
         <v>-359693.53</v>
       </c>
       <c r="H240" s="4" t="n">
@@ -8949,7 +8949,7 @@
       <c r="F241" s="3" t="n">
         <v>43641</v>
       </c>
-      <c r="G241" s="19" t="n">
+      <c r="G241" s="18" t="n">
         <v>-286872.99</v>
       </c>
       <c r="H241" s="4" t="n">
@@ -9089,7 +9089,7 @@
       <c r="F245" s="3" t="n">
         <v>43641</v>
       </c>
-      <c r="G245" s="18" t="n">
+      <c r="G245" s="17" t="n">
         <v>-359693.53</v>
       </c>
       <c r="H245" s="4" t="n">
@@ -9194,7 +9194,7 @@
       <c r="F248" s="3" t="n">
         <v>43641</v>
       </c>
-      <c r="G248" s="18" t="n">
+      <c r="G248" s="17" t="n">
         <v>-359693.53</v>
       </c>
       <c r="H248" s="4" t="n">
@@ -9229,7 +9229,7 @@
       <c r="F249" s="3" t="n">
         <v>43664</v>
       </c>
-      <c r="G249" s="18" t="n">
+      <c r="G249" s="17" t="n">
         <v>-52902.23</v>
       </c>
       <c r="H249" s="4" t="n">
@@ -10341,7 +10341,7 @@
       <c r="F281" s="3" t="n">
         <v>43766</v>
       </c>
-      <c r="G281" s="18" t="n">
+      <c r="G281" s="17" t="n">
         <v>-151929.54</v>
       </c>
       <c r="H281" s="4" t="n">
@@ -10376,7 +10376,7 @@
       <c r="F282" s="3" t="n">
         <v>43766</v>
       </c>
-      <c r="G282" s="18" t="n">
+      <c r="G282" s="17" t="n">
         <v>-151929.54</v>
       </c>
       <c r="H282" s="4" t="n">
@@ -10449,7 +10449,7 @@
       <c r="F284" s="3" t="n">
         <v>43766</v>
       </c>
-      <c r="G284" s="18" t="n">
+      <c r="G284" s="17" t="n">
         <v>-151929.54</v>
       </c>
       <c r="H284" s="4" t="n">
@@ -10484,7 +10484,7 @@
       <c r="F285" s="3" t="n">
         <v>43766</v>
       </c>
-      <c r="G285" s="18" t="n">
+      <c r="G285" s="17" t="n">
         <v>-151929.54</v>
       </c>
       <c r="H285" s="4" t="n">
